--- a/data/hotels_by_city/Dallas/Dallas_shard_358.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_358.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="608">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>rboykins71</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Z9380OMkathleenc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r576898414-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>AlvildaL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r569791576-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>It's been a long time since I've stayed at a Holiday Inn due to a bad road trip experience. I'm so glad that I decided to give them another shot.My room (King) was perfect, and very clean. The staff was super friendly and helpful with information on the area.I also love that they have USB outlets next to the bed and reading lights... an excellent and thoughtful detail.I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Dana W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r565530589-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>My wife and I stayed 1 night and were very pleased with the service and the room. Hotel was very recently remodeled so everything was new.  The staff was very friendly and offered suggestions on good places to eat.  We flew out of Love Field the next day, and it only took about 10 minutes to get to the terminal. We will certainly consider staying there again next time flying from Love Field.More</t>
   </si>
   <si>
+    <t>alaskansummers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r554180798-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -282,6 +297,9 @@
     <t>Booked a Holiday Inn Express in Nampa, Idaho 4 days in advance.  Rate on the hotel website was $108.00, so I booked.  Later on my reservation confirmation I seen a link for IHG rewards program.  Since I am a member of almost every other rewards program, I signed up.  ! BIG MISTAKE..!!  Turns out that due to a family illness I had to cancel the trip.  I called the hotel and they were very nice about canceling the reservation, and then they charged me $116 for the cancellation.  They said it was because I booked through IHG and the rate clearly states that the full amount will be a deposit.  The next line says cancellation results in a loss of the deposit.  I talked with reservations, the hotel manager, and no resolve.  Since then I have spent the last 2 weeks trying to get out of the iHG program.  I get advertisements many times a day, and all kinds of junk mail even though I repeatably unsubscribe, and return emails to those sending them. You got my money, I got screwed.  Just leave me alone.  Don't use this program or their hotel chain.  There are too many choices out there to have to put up with crap.Bart SummersMore</t>
   </si>
   <si>
+    <t>MissPequot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r552983430-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Portastorm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r530292917-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -318,6 +339,9 @@
     <t>Had a very pleasant stay here during a several-day, mid-week work trip.  Yes the hotel appears to still be transitioning into something more “modern,” but it still beats a lot of other places I’ve been.  I had limited interaction with staff but those brief moments were professional and polite.  The free morning breakfast bar was great! Warm food and fresh fruit and plenty of other things. Staff worked hard to keep it warm and refilled. My room was fine although the décor was a bit dated. No big deal. It was clean, good sized, and the King bed was very comfortable. Also of note is that the hallway sounds where I was were almost non-existent. Good walls between rooms as well. Very quiet and nice. Bathroom amenities were sufficient and the bathroom itself was good sized. Internet was fast and the flat screen TV was good with good channel selection. It also very convenient to have USB charging outlets next to the bed. Good job! All in all I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Mistyriver88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r526599014-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>My husband and I usually stay at the Holiday Inn Express whenever we visit the US.  Most have pretty good standards.  However at this location, the towels were worn out.  The pillows were lumpy.  I couldn't sleep well.  The hotel looks tired.  It's time for a makeover. More</t>
   </si>
   <si>
+    <t>dcjw700</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r520104119-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -372,6 +399,9 @@
     <t>I have stayed here many times over the years but this was my first time back in 5 years.  It was good to see the same evening front desk guy as he's always been friendly and professional.  The hotel has gone downhill but it looks like they are refurbing it.  The elevator looks like it went through some hell over the years.  I expect the updating will bring this property back up to HIE standards.  After all, no HIE should look like a Quality.More</t>
   </si>
   <si>
+    <t>jengnathan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r514889809-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -396,6 +426,9 @@
     <t>I have never written a review about a hotel before but this needs to be said. We travel frequently and this is the worst hotel we have ever been. The clerk who checked us in did seem friendly and the room was nice and spacious. Those are the only 2 nice things I will say about this place. We did a quick look over for cleanliness when we arrived in our room. It seemed like everything was up to our standards. The next morning one of my kids discovered a bug on one of the pillows. It looked like a bed bug so We took a picture of it and showed the clerk at the front desk. She acted like it was no big deal. She said "that's not a bed bug that is a roach. They come through the carpets from other floors. I'm sorry". And that was it. She then asked if I wanted my receipt for the room. Unbelievable! A bed bug or roach, no one wants to bring either of those home!! Either of those can cause an infestation. So I called the 800 number on their website and the person on the phone offered me points to stay in another place. Why would I ever come back here or to any holiday inn after this? We will go back to Marriott.More</t>
   </si>
   <si>
+    <t>SweetWillie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r434033862-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -423,6 +456,9 @@
     <t>Room was clean, bed comfortable. Room was also a bit beat up as was the bathroom, downspout was very loose. Shower pressure was good though. Small outdoor pool for enjoyment on those warm Dallas days.Free parking.Good location for business around Dallas but area is sketchy, there is a strip club across the street and area is depressed.More</t>
   </si>
   <si>
+    <t>TFW21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r424102196-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -441,6 +477,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>mreconomy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r422351162-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -456,6 +495,9 @@
     <t>Hotel staff is awesome and friendly.  Breakfast is good.  Rooms are in need of some updating/better cleaning but overall comfortable.  The price was good for the area.  The hotel is located very close to many restaurants and bars and is very close to I35 so easy to get to.</t>
   </si>
   <si>
+    <t>travelingwithjd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r419983996-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -472,6 +514,9 @@
   </si>
   <si>
     <t>I was a bit hesitant to book this hotel due to previous reviews and the fact that my standards for hotels are much higher than some people's. However, I was surprised. The only "con" I can truly mention was the smell in the lobby and hallway. Other than that, the room was clean, the bed was extremely comfortable (so much so that my husband kept refusing to get out of bed, the morning of checkout, which never happens) and was quite even though it is right off the highway. We forgot our bathroom toiletries but was surprised to find travel size white citrus scented shampoo/conditioner/lotion/shower gel from Bath &amp; Body Works supplied in our bathroom. It beat the usual plain hotel supplies. The water pressure in the shower was awesome as well! There was a Keurig supplied in our room with a refrigerator and microwave so that was nice. The parking lot had plenty of light at night. We didn't eat the breakfast the morning of check out, but it sure smelt good! The ladies at the front desk were very friendly and answered the questions I had regarding billing, the room and the general question regarding things in the area. It was a great choice for a weekend get-a-way.More</t>
+  </si>
+  <si>
+    <t>pueplebear75</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r419820445-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
@@ -519,6 +564,9 @@
 Was down during our stay and no note posted that...Staff: Do not go to this hotel expecting a warm southern Texas welcome, staff was not rude but were not  overlly cheerful.Upon telling staff elevator was down after it made a loud sound and dropped when we attempted to go to the 3rd flooor they just seemed unaffected and mubbled to themselves that it needed to be reset.  After using the pool later in the evening we again reported the elevator was down. No offer to move us or to compensate us.Pool:Pool deck surface is pebble surface that is extremly painful on feet.  No hottub .  Outside pool was refreshing and we were the only ones using it which was a plus.Note to self look at towel supply before entering pool.  Only 2 fresh towels left at the pool with used towels left behind in chairs.  Upon telling staff they seemed uninterested to respond to getting more pool towels, no thanks for telling us we will get new ones out there.Cleanliness:Surfaces in room were dirty sticky had to wipe them down ourselves.Couch was extremly dirty and had a hole in the back of it when we went searching for an electrical outlet to plug in devices near one of the bed sides.Rooms need more outlets to accomdate bedside plug in options for both sides of beds.Floor near airconditoner was wet.Elevator:  Was down during our stay and no note posted that it was down until the morning and where the stairs were located.Dated hotel:Hotel is in need of updating.  Elevator had painted diy woodwork that was not up to ihg standards.  Breakfast room:Upholstery on furniture was in need of a good cleaning of old stains and food spots.Oj was watered down.  What happened to the cranberry juice why is ihg now serving mango something yuck.Can you serve both bacon and sausage items on the weekends?More</t>
   </si>
   <si>
+    <t>Danny R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r416585386-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -543,6 +591,9 @@
     <t>I booked the hotel, because it says that it is close to Love Field.  The hotel is actually about 15 minutes away.  I really booked it because I did not have a car, and I wanted an shuttle.  I called the toll free number I was promised that a shuttle will be at the airport.  When I called the actual hotel, I was told that since I did not book it directly with them, instead with tripadvisor.  I do not get the same services as other guest.  I felt embarrassed to even check-in.  I knew trip-advisor would not give me a refund.  I hate to pay for transportation to the hotel, which was 15 minutes away.  When I checked into the hotel the night manger, just told me hey your the guy that called.  Ya your thru a 3rd party company.  I was dead tired and it was 9pm, I didn't want to argue like most travelers.  I got my key to my room and went to sleep after an hour.  I wake up at 5am to fly out, and when I go to the bathroom, I see little dirty towels hanging off the shower rod.  The toilet looked like he had not been washed.  I called for an uber.  When I went to checked out, they couldn't give me a receipt because I had book thru tripadvisor.  Yet they can my card for any incidentals.More</t>
   </si>
   <si>
+    <t>1-OnlineAddict-</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r405940915-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -561,6 +612,9 @@
     <t>We booked a 2 queen bedroom for 3 nights while in the Dallas area and really enjoyed our stay. I was hesitant due to some of the reviews I read, but it was a last minute trip so I had limited choices when booking, but I'm so glad we stayed here! Very close to DAL and downtown Dallas, lots of restaurants near by. We had a late check in at midnight, and were greeted with a smile and warm welcome, all staff we encountered were very nice. The hotel was very quiet and clean, no smell of smoke which was one of my concerns since it's not a completely smoke free hotel. We were on the second level of three and had a choice of a short walk up the stairs or elevator. Our room was very spacious and comfortable. The ac worked great and kept us cool during the TX summer heat. The housekeeping staff was amazing and very friendly! The included breakfast was the same everyday but had lots options from mto pancakes, eggs, and sausage to cereal, bagels and pastries. The dining room staff was very quick to replenish items as needed. We didn't have time for the outdoor pool but checked it out and it was clean but small in size, up to 5ft deep with few pool chairs. There was plenty of parking available. Overall everything was excellent and we'll definitely stay again when in...We booked a 2 queen bedroom for 3 nights while in the Dallas area and really enjoyed our stay. I was hesitant due to some of the reviews I read, but it was a last minute trip so I had limited choices when booking, but I'm so glad we stayed here! Very close to DAL and downtown Dallas, lots of restaurants near by. We had a late check in at midnight, and were greeted with a smile and warm welcome, all staff we encountered were very nice. The hotel was very quiet and clean, no smell of smoke which was one of my concerns since it's not a completely smoke free hotel. We were on the second level of three and had a choice of a short walk up the stairs or elevator. Our room was very spacious and comfortable. The ac worked great and kept us cool during the TX summer heat. The housekeeping staff was amazing and very friendly! The included breakfast was the same everyday but had lots options from mto pancakes, eggs, and sausage to cereal, bagels and pastries. The dining room staff was very quick to replenish items as needed. We didn't have time for the outdoor pool but checked it out and it was clean but small in size, up to 5ft deep with few pool chairs. There was plenty of parking available. Overall everything was excellent and we'll definitely stay again when in Dallas! More</t>
   </si>
   <si>
+    <t>hayesie82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r398758676-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -579,6 +633,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Richard B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r394760488-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -591,12 +648,18 @@
     <t>We chose this as it was close to I-35 and not far from the airport. We had a good sized, clean room at a reasonable cost. There is a computer in the lobby so we were able to print off our boarding passes for our next day flight. We asked the receptionist what the difference between Holiday Inn Express and Holiday Inn is. The answer is that the "Express" does not have a restaurant and the breakfast is free. The breakfast was one of the best I have ever had in a hotel with a good range of hot and cold items.We will definitely stay here again.</t>
   </si>
   <si>
+    <t>Lacy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r392060855-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
     <t>392060855</t>
   </si>
   <si>
+    <t>bbutler12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r389932154-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -612,6 +675,9 @@
     <t xml:space="preserve">Clean rooms that are very quiet. Nice pool and work out room. Friendly, helpful, and courteous staff. Very close to some restaurants. Just 4-5 miles from many museums.  Many gentlemen's clubs nearby (one within walking distance), so keep in mind for little eyes. We would definitely stay again. </t>
   </si>
   <si>
+    <t>travelhuni</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r380593710-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -630,6 +696,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>kalfit01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r378819223-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -648,6 +717,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>FLTIFF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r374196348-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -672,6 +744,9 @@
     <t>The staff here was awesome!  We arrived late and they had no problem taking us to a place within 5 miles so that we could grab something to eat.  the hotel is a little older but it is clean and the lobby has been updated, I have heard that the rooms are next.  The beds were comfortable and they also run an airport shuttle which is not that far and is convenient.More</t>
   </si>
   <si>
+    <t>izuraw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r358022349-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -690,6 +765,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Xxaaronxx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r347228953-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -705,6 +783,9 @@
     <t xml:space="preserve">Great place clean and good breakfast. Very happy with everything. Used rewards to book the room. Beds were very comfy and clean so no issues there. Staff was professional and friendly. Would highly recommend this to anything needed a room for anything </t>
   </si>
   <si>
+    <t>Jeremy85100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r344398045-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -720,6 +801,9 @@
     <t>This is a franchised hotel and my one night stay there was as expected and pleasant. The rooms feel a little outdated and seem to need a refresh though I liked the hotel especially because it had restaurants walking distance. Lots of parking space though wifi is bad.</t>
   </si>
   <si>
+    <t>m0mthattravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r338683381-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -738,6 +822,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>TravelbugMississippi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r330531838-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -765,6 +852,9 @@
     <t>The room was clean and comfortable, but not overly nice. We chose this hotel based on location to Dallas Love airport, and because they told us they offered a free shuttle to airport starting at 7am. When we got to the desk in the morning to check out and get on shuttle, we were told that the shuttle would not be available until later in the day. As a result, our morning was stressful trying to make our morning flight. More</t>
   </si>
   <si>
+    <t>Richard G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r323277237-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -783,6 +873,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>MissWhiskers11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r264283271-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -801,6 +894,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Alisa C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r264094329-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -819,6 +915,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>cuinthemoon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r261978582-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -834,6 +933,9 @@
     <t>Stayed here the last day of our trip, had a room right off the lobby which was weird but wasn't noisy like I thought it would be, but felt we didn't have a lot of privacy. The room was clean and no issues. They had free shuttle service to the airport which was greatly appreciated. Can walk to the Waffle House to get a bite.</t>
   </si>
   <si>
+    <t>G H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r260467431-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -849,6 +951,9 @@
     <t>We enjoyed a great stay while in the Dallas area.  There are numerous restaurants within a mile of the hotel and a Starbucks right next door.  The hot breakfast was well stocked and the breakfast attendant was attentive.  She made sure there was always enough food, supplies, and that the breakfast area was clean.  The front desk staff was always friendly.  The room was clean, comfortable, and had very comfortable beds.  We will definitely stay here again the next time we are in the area.</t>
   </si>
   <si>
+    <t>JimNtexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r251120565-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -867,6 +972,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>DrMomma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r194906414-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -888,6 +996,9 @@
     <t>The hotel staff was very helpful and accomodating.  I had an unexpected extra person added to my stay, and they made it smooth and easy.  The room was clean, comfortable and nicely decorated.  It had a fridge and microwave as well as in-room coffee. Beds were comfortable and the parking lot was well lit.  An earlier review cited the parking lot signs warning you to hide or take your belongings.  Every hotel I have ever stayed in while in Dallas has the same signs. I am pretty sure they are there by city ordinance. The area seemed safe enough and there was plenty to choose from nearby on restaurants and shopping.  Overall, this was a very nice stay.  I definitely would stay here again.More</t>
   </si>
   <si>
+    <t>MISSREENA30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r187117322-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1026,9 @@
     <t>Thank you to the lady working the Sun eve Dec 8 at the front desk of this Holiday Inn Express during the chaotic ice storm in Dallas. Like thousands of other people, my flight was cancelled and I was stuck in Dallas overnight. I called this hotel from the airport and could get a room and she was very pleasant in explaining how far the hotel was so I was aware how to get here with a cab. The room was very cozy and they offered me the phone number to the Pizza Hut so I could order dinner. Also got a complimentary toothbrush &amp; toothpaste. Tomorrow hopefully if I can catch a flight out of Dallas when the airport re-opens, they have a shuttle to the airport. The roads are icy and I am away from home unexpectedly due to weather. This hotel made my stay as comfortable as possible. Thank you!More</t>
   </si>
   <si>
+    <t>Miller333</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r184831193-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -937,6 +1051,9 @@
   </si>
   <si>
     <t>We reserved a King Non Smoking room and ended up on the 3rd floor in rm 314 where it reaks of a terrible smoke odor and is a double room! What makes it worse, we only chose this hotel because I called and they informed me that they will take us to and from the hotel! We arrive tonight and the attendant informs us they do not run their shuttle on the weekends. Irritated!! I will certainly stay in Addison at the Intercontinental (as I usually do) next time instead of tryin to cut a little time by staying near the airport. Terrible!!!! I only hope I get the survey!More</t>
+  </si>
+  <si>
+    <t>grotshops</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r182382671-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
@@ -972,6 +1089,9 @@
 Most of the staff, with a couple of exceptions, were friendly and helpful.  The immediate neighborhood is pretty marginal (a "gentlemen's club" is across the street), but there is adequate parking and access and we felt...Stayed three nights during Texas-OU weekend.  This appears to be an older property that has been refurbished/rebranded.  The common areas were comfortable and generally up to HI Express standards.  The exercise room is small and was experiencing some electrical problems.  Cardio equipment was good, but there's only one weight machine, which was missing some attachments. No dumbbells or mats.  We did not use the pool.Of our two rooms, one was fine.  The other had a perfumey smell, apparently to cover up some other less pleasant odor which we could not identify.  The rooms were clean, and are very spacious, and everything worked.  The beds were not as comfortable as in some other HI Express properties.  There were water stains on the ceiling, probably from tub overflows in the room above us.  The room safe did not work, and we were informed that none of the safes are operational.  So why leave them in the rooms?  We also had problems throughout our stay with some of the room keys failing to work.Breakfast was standard for this chain; however, the one morning we ate toward the end of the serving time, some items had not been replenished, so the pickings were slimmer than usual.  Most of the staff, with a couple of exceptions, were friendly and helpful.  The immediate neighborhood is pretty marginal (a "gentlemen's club" is across the street), but there is adequate parking and access and we felt safe.  There is a Starbucks adjacent, which was nice.  As other reviewers have mentioned, the hotel is close to numerous restaurants.More</t>
   </si>
   <si>
+    <t>BLH_SD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r181677257-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1110,9 @@
     <t>Visiting for our 1st time to attend the Texas State Fair.  No idea where to stay and just ended up here basically for the availability, price and location.  Had a good experience here from the minute we walked in.  We were warmly greeted by staff and quickly checked into our room.  They even have free snacks waiting in the lobby.  The hotel is older but nicely maintained.  Great Breakfast but best of all the staff was so nice and helpful to us.  It is close to the DART but you need to take a bus or car.  The maid service was good and the room spacious.  Beds comfortable.  We didn't get to use the outdoor pool but looked nice.  I would stay again.More</t>
   </si>
   <si>
+    <t>mikeycee0630</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r181437426-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1128,9 @@
     <t>This was my second time staying at this hotel while visiting Dallas and had a pleasant stay.  The room was very clean and the bed very comfortable.  I feel that the location is great, as it's 10-15 minutes from downtown Dallas.  No complaints here.</t>
   </si>
   <si>
+    <t>RSanch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r177430744-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1020,6 +1146,9 @@
     <t>I really enjoy staying here at the Holiday Inn Express it is a very nice hotel and affordable when we do come to Dallas,I highly recommend these hotel.The front desk clerk Kristi is always so courteous to us and very helpful.Rooms are very clean and comfortable</t>
   </si>
   <si>
+    <t>PlatinumMember174</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r171733141-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1170,9 @@
     <t>The Holiday Inn brand has seen a huge drop in quality, they have always won the Frddy award and this year they have not. They didnt win it because of poor Hotels, badly maintained hotels, bad management and staff and could care less attitude of owners and corporations that own them, their ranks are now down to 17th or 18th of all hotel brands which puts them from what i have seen in the same category as a Best WesternThis Hotel is nice,and affordable, althougth it is not in a great area, the rooms are well maintained and the satff is friendly. They have an Airport shuttle which is not working when i stayed there, and they still called a cab and paid for it becauseof the inconvinience. The beds are not bad and they have nice TV's with a great variety of channels. Lots of Mexican restaurants and Bars in the area, so you will never go hungry or thuirsty, just be weary of your surroundings specially at night.More</t>
   </si>
   <si>
+    <t>WestTexan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r170753445-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1197,9 @@
     <t>we booked a Holiday Inn Express a few weeks ago while planning to come to Dallas for some testing for students.  Booked through the IHG website and printed out a receipt that says :" Best price guarantee" "find a lower price and your first night is free"  There is NO additional verbiage.  Our rate is $108/night. Pad in advance.  Not bad, BUT when we show up at the front desk, we learn that their rate for us having some testing done would be $79/night.  2 rooms, 2 nights each, and that is about $120  difference. Real money.  The hotel front desk clerk can't make any adjustment.  Called the IHG 800 customer satisfaction line and spoke w/"Don".  Sorry sir, that is if you find a better rate within 24 hours, and bah blah blah.  So they are not honoring what is plainly printed on the confirmation, front page.  VERY DISSAPOINTED WITH IHG GROUP AND THEIR FALSE ADVERTISING.More</t>
   </si>
   <si>
+    <t>dsg560</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r168796701-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1227,9 @@
     <t>This hotel worked out ok for one night but I would not have wanted to spend additional nights there. We had an early flight and the location was good for that however, the location was pretty scary and we would not venture out in that area at night. The hotel itself didn't appear very appealing. The public area looked dingy.  Our room was clean except the bathroom floor didn't look that great. The bed and sheets were comfortable and clean. The shower worked well too. We were put into a non smoking room however the room smelled of smoke. We asked to be moved but they said they could not move us. The clerk offered to cancel our reservation, but it was too late at night to find something else. We chose to stay, use some Lysol for the smell and it worked out ok for one night.More</t>
   </si>
   <si>
+    <t>btuma2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r157399213-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1251,9 @@
     <t>Well, maybe Palace might be the wrong word, but close.We left the dump and found the Holiday Inn.  What a relief.From check in to check out, nothing but a pleasant experience.Check inn took a few extra minutes, but was surprised to hear the apology and a snack package for our patience.Excellent parking facility.  The Hotel was very nice and very clean.The room was no exception.  Very nice, comfy and very clean.The bed was great.  Slept like a log.  I believe our rate was in the 80.00 range, but worth the price from the other place we fled from.That is where I will be staying next year on our annual dining trip.More</t>
   </si>
   <si>
+    <t>rondaholler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r157035491-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1131,6 +1272,9 @@
     <t>My husband, 4 year old daughter, and I stayed on Friday and Saturday night. We stayed on the lower floor suite.  It was more than enough room for us. The bed was very comfortable. The T.V. was difficult to work. The sound was easy to adjust but could not change channels. There was a thunderstorm and the cable went out. Had to call the front desk and found out that there is a box in the back of the t.v. that when used with the remote would change the channels. This is hard to do when you are in the bed. This was dissappointing. The bathtub drain would not drain properly. When taking a shower, water would fill up the tub. This was reported to a man at the front desk. He stated that sometimes they stick and he would send a maintenance man. I do not know if a man ever came but the problem was not fixed. Our room was close to the pool. This was nice. The pool was heated and there was a whirl pool. It was nice also. The towels small and very thin. They look like they had been around for awhile. The free breakfast was good and plenty to eat. When we went to the front desk on Saturday evening with questions, the young lady was not remotely interested in helping us or answering our questions. She would respond with "I don't know."...My husband, 4 year old daughter, and I stayed on Friday and Saturday night. We stayed on the lower floor suite.  It was more than enough room for us. The bed was very comfortable. The T.V. was difficult to work. The sound was easy to adjust but could not change channels. There was a thunderstorm and the cable went out. Had to call the front desk and found out that there is a box in the back of the t.v. that when used with the remote would change the channels. This is hard to do when you are in the bed. This was dissappointing. The bathtub drain would not drain properly. When taking a shower, water would fill up the tub. This was reported to a man at the front desk. He stated that sometimes they stick and he would send a maintenance man. I do not know if a man ever came but the problem was not fixed. Our room was close to the pool. This was nice. The pool was heated and there was a whirl pool. It was nice also. The towels small and very thin. They look like they had been around for awhile. The free breakfast was good and plenty to eat. When we went to the front desk on Saturday evening with questions, the young lady was not remotely interested in helping us or answering our questions. She would respond with "I don't know." Parking is limited but we did not have any problems. We were able to park by a side door that was close to our room. Overall, it was a fairly good experience and close to many attractions.More</t>
   </si>
   <si>
+    <t>ReshaH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r156499025-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1149,6 +1293,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>luckyokguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r155831206-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1173,6 +1320,9 @@
     <t>Overall this was an ok stay. I was greeted with a PC Plat Gift &amp; Upgrade. Internet worked great. Standard breakfast that changed a little daily. Nice big room, fluffy towels &amp; comfy bed. My disappointments were the beautiful new LG tv that only had "ANALOG" reception. I asked more than once if anything could be done about it but nothing changed in 3 days. No excuse. Big gap under the room door to the hall. You won't need a nitelight.Wrinkly, though nice &amp; clean sheets and debris behind the nightstand that stayed there the whole time were some housekeeping issues. I was looking for a place to plug the phone in or I might not have ever known. It's probably still there.Maybe I'm too picky, but at these prices they could do a little better.More</t>
   </si>
   <si>
+    <t>thelooker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r155585581-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1188,6 +1338,9 @@
     <t xml:space="preserve">We stayed here 2 nights ago and needed some rest. This hotel had some thrills but did fit the bill. The only real concerns were the bathroom door and the location. First, the bathroom door looked like it was cut off an inch or two. The hinge didn't reach the frame but it closed, just not completely. Second, the location looked like anything bad could happen from anywhere; thankfully it didn't happen. Road construction was going on nearby although that isn't the hotel's fault. There are lots of attractions nearby the area and it's convenient to I-35 E. </t>
   </si>
   <si>
+    <t>BettyRuth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r154119306-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1356,9 @@
     <t>We choose this hotel because of the name and the coupon I had in the traveler's guide. We just needed to rest for a night and give the driving a break. We checked in about 7:00 pm. The front desk clerk was very kind, lighthearted, and accommodating. Our room was very clean and spacious. It was a great deal for the money we spent. Hot breakfast in the nice, clean dining room. Of course, starbucks is next door for extreme coffee fans like myself. I would definitely recommend this hotel.</t>
   </si>
   <si>
+    <t>nd02155</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r153689558-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1221,6 +1377,9 @@
     <t>The hotel is convenient to downtown, lots of great places to eat within a mile.  There's a Waffle House right next door but I'm not a fan.  But like I said, plenty of other places with walking distance or 3 minute drive.  The room (king suite) was clean, spacious, quiet with fridge and microwave.  The bathroom was nice and big with lots of counter space, which is a must for us as my wife packs our whole bathroom when we travel.  Nadia at the front desk was very friendly and helpful and had a smile on her face and very attentive every time we needed something.  It was a nice touch since nowadays everyone is texting when you need something.  Breakfast was just okay, but we went very late so things were getting dry (eggs, bacon) by the time we got there.  Maybe earlier things might be fresher.  I would definitely stay here again without hesitation.More</t>
   </si>
   <si>
+    <t>gunreel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r149092432-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1242,6 +1401,9 @@
     <t>My wife and I stayed in a room with 2 double beds (should have asked for a King bed) with a couch, etc.  Large room was clean and the staff was very friendly.  The bed sagged a little in the middle, but it just allowed us to cuddle longer than usual (it was our anniversary anyway!!).  We both had a good nights sleep and didn't hear any outside noise at all.  The breakfast was really good.  They had a pancake making machine which spits out 2 pancakes in 45 seconds.  I loved the pancakes, along with the eggs, bacon, biscuits, gravy, milk, and juice.  We would definitely stay here again when in Dallas.More</t>
   </si>
   <si>
+    <t>jaxxcapone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r148075286-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1263,6 +1425,9 @@
     <t>This was a typical holiday inn stayed there for two nights, easy and fast check in  elevators old and rundown takes a while for it to go up and down and makes alot of noise a suite is the same size of a standard room I guess if they throw a couch in there they consider it a suite old furnishings in the room old tv from the 90's bathroom small.Besides that the breakfast is not that good each day was something different.The first day they had some kind of egg omlette concotion some watered down gravy and cereal and fruit it didnt even smell good luckly they had a starbucks across the parking lot so went there, the next day they had standard scrambled eggs and bacon  which was decent pretty bland dont know why they change what the serve each day it should be standard Ive had much better at another HIE dallas  market center to exact down harry hines about 3 miles away and they had a much better selection and quality breakfast so I assumed all HIE were the same guess I was wrong.Overall the location is great on the stemmons corridor so its great if thats your main concern but if the quality of rooms and breakfast is important I wouldnt recommend itMore</t>
   </si>
   <si>
+    <t>trippin_it_up</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r146182727-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1281,6 +1446,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Diana D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r143561113-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1302,6 +1470,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Joniesha P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r142861523-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1317,6 +1488,9 @@
     <t>Rooms are big,spacious,and nice..water doesnt get hot but warm...we only stayed there for 12 hours enoughh to get rest before we went back home from our vacation..staff was friendly and helpful it was ou and texs weekend!</t>
   </si>
   <si>
+    <t>Sheen79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r141997069-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1332,6 +1506,9 @@
     <t>The hotel was lovely! Staff very polite and treat you as VIP. It was quiet, clean and comfortable. Breakfast was delicious, lots of choices. Conveniently near enough car rental and airport where you can miss the traffic.</t>
   </si>
   <si>
+    <t>TimHistoryBuff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r140319992-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1347,6 +1524,9 @@
     <t>I was a bit concerned about staying here due to some of the other negative reviews, however I didn't experience any problems. The staff were polite and helpful, the room was clean and in a good condition. There was no late night noise and no problems from the surrounding addresses. The free breakfast was very nice with a good selection.Why 'just' the average rating ? When I pay over $100 for a room I expect a hotel to be all of the above as a given. In short this was everything you'd expect in a hotel. I've got no problem recommending this to you.</t>
   </si>
   <si>
+    <t>PHSTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r138904503-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1368,6 +1548,9 @@
     <t>Was there on business from August 19th thru August 28th. This hotel's got just about everything one would expect from a Holiday Inn Express.The front desk staff are very kind and courteous and helpful. I only stopped by for breakfast one time and found it to be very well done- good selection, and a nice ambiance in which to enjoy it.Housekeeping was great and timely and did a fine job. The condition of the room was somewhat poor. The carpet was dirty and musty and the room had an odor, but it wasnt' overwhelming. The furniture was somewhat "beat up". Many surfaces had water marks and scuffs. The dresser drawers weren't fitting into the slots correctly and some of the bottoms of the drawers were falling out. The granite near the coffee pot and sink area had burn marks/stains. The bathroom was a good size with a large sink/vanity area, however the bathtub was tiny considering the large size of the bathroom. Water pressure was good and I always had hot water when needed.Most of the "in-room" movies were over $10, so skip that. There was only one washer and dryer and I had to wait a good bit for use of the appliances. The bed was very comfortable and I slept very well. The bed was very clean. The AC didn't have a digital display, so I had to guess on the tempurature setting.More</t>
   </si>
   <si>
+    <t>civility</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r137310695-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1383,6 +1566,9 @@
     <t>We were looking for a hotel in the Love Field area and decided to give this one a try based on the fact that we have stayed at some nice HIE hotels in the Northeast. We expected no frills, just a good basic clean room.   Our room was on the first floor and had a very musty smell but that aside, it amazes me that Holiday Inn would allow this place to be part of their franchise. It is very run down and dirty.   I would not recommend this hotel.  Lucky for us we only pre paid two nights and were able to find an excellent alternative</t>
   </si>
   <si>
+    <t>WJC31589</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r137129700-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1404,6 +1590,9 @@
     <t>While there is a strip club across the street (Baby Dolls), this hotel is in a pretty nice location with quick access to Interstate 35 and not terribly far away from Dealey Plaza and the JFK assasination site (for those of you who are history buffs) via a quick trip down I35/Stemmons Freeway.  The rooms are clean and nicely appointed and the breakfast is better than average with hot items (sausage, eggs, gravy, etc.).  In addition, there's a Starbucks almost literally in the same parking lot, a large convenience store within walking distance and Pappasito's Cantina and Pappas Brothers Steakhouse are a short driving distance away (both are top notch restaurants by the way).  Joe's Crabshack is also within a short driving distance (not so great of a restaurant, but some people still like the place nonetheless).While I wouldn't normally associate a quality hotel within a short distance of a strip club, I've stayed at this HIE multiple times and never really heard any noise from the establishment. In comparison to other HIE branded hotels, this one is slightly above average in my opinion (e.g. 6-7 on a 10 point scale).More</t>
   </si>
   <si>
+    <t>FirebrandFire</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r135493309-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1419,6 +1608,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>affalken</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r132413869-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1446,6 +1638,9 @@
     <t>I chose this property because of the poor ratings for other hotels in this area.The desk clerk at check in was friendly. When I returned a couple of hours later for a dinner recommendation a different desk clerk was on duty and she would not take her eyes off her personal computer to even acknowledge my presence or answer my question.The property is tired and in need of updating. The room had dirty walls and there was mold on the wall outside the shower from water overflow. The towels were of low quality.The breakfast was mediocre at best with watery eggs and tasteless orange juice. With nearly 30 minutes left before the end of the alloted breakfast time, the "attendant" was already in process of shutting down for the morning.Should I ever find myself in need of lodging in the area of Love Field, this place is not an option.More</t>
   </si>
   <si>
+    <t>ddj123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r132132636-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1461,6 +1656,9 @@
     <t>Stayed 2 nights first night was relaxing which didn't make up for the second with the loud music going on til all hours of the night would've been nice for the staff to have informed us of a  private party upon check-in never again!</t>
   </si>
   <si>
+    <t>Madjude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r116619114-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1476,6 +1674,9 @@
     <t>We got this hotel stay for $36 per night thru hotwire.  Rooms are a good size.  Housekeeping is good.  Breakfast selection excellent.  Starbucks and restaurants close by. Fridge and microwave in rooms.</t>
   </si>
   <si>
+    <t>Brownsugabear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r110126069-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1494,6 +1695,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>kitten1943</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r89521933-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1515,6 +1719,9 @@
     <t>We were treated royal.  The food was good in the AM .  (Eggs tasted little powered or something ...  But good.  There was great selection of things to eat,  and  juice + milk + coffee + etc. etc.   Rooms clean!!  Fresh cookies all the time.  We had nothing bad happen to us .  The parking lot is well lit.  We felt relaxed there.  I am not sure why others had bad experiences AS WE HAD NONE.  Bedding clean  ...  first thing our son did was to check for bed bugs --  NONE !!!  This place must be recently remodeled as everything was great.  If there was minus -  it was that probably before it was a non- smoking hotel it had been smoked in and ALTHOUGH totally remodeled ...  at night we could smell the smoke.  Not real bad -  just cause we have "non-smoker" noses.  Many eating places near by.More</t>
   </si>
   <si>
+    <t>Greybeard3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r79241672-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1533,6 +1740,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>dsh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r69207491-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +1761,9 @@
     <t>June 2010</t>
   </si>
   <si>
+    <t>TXRunningTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r67304023-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1569,6 +1782,9 @@
     <t>I reserved this hotel via Hotwire. I ultimately had to demand a refund from Hotwire after only about three hours at this hotel, and I checked out and reserved at another hotel. The Internet service didn't work -- and the front desk clerk didn't seem to think that it was her issue to deal with. "I don't fix the Internet," she told me. I asked to speak with her manager, and it took him more than 2.5 hours to call back. The room and the hotel hallways have an old attic smell about them, and the entire hotel is a bit dated. I wouldn't stay here or recommend it unless you're on a shoestring budget and it's the only option.More</t>
   </si>
   <si>
+    <t>GlobeTrotter280</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r56474322-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1585,6 +1801,9 @@
   </si>
   <si>
     <t>February 2010</t>
+  </si>
+  <si>
+    <t>Matthew M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r46666065-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
@@ -1618,6 +1837,9 @@
 As mentioned, the free hot breakfast was quite good, and the options with it were respectable. The high speed wireless internet was decent, but the wired connection was more reliable. Luckily, you have wired availability in the room by the desk if you need it. The televisions in the rooms are outdated, but functional. The hotel offers a shuttle to the airport if you need it, but...INTRODUCTION:I was planning travel for a series of College Fairs and events in the Dallas area and wanted a relatively centrally located hotel that offered free high speed internet, preferably had a breakfast offering, and offered a roomy room/suite I could spread out in for a week while traveling for work. The Holiday Inn Express at I-35/Stemmons Freeway came to the top of my list with these criteria.LOBBY/COMMON ROOMS:The lobby was pretty typical for this chain- nice, somewhat contemporary, and medium sized. The fitness center is small and smells unfortunate, but was outfitted with nice equipment. The pool was nice looking, but since it rained all week, I was unable to use it. The breakfast area was very nice, and I was particularly pleased with the offerings considering it was a free breakfast. There were some kind of hot eggs every morning, sausage, bacon, biscuits and gravy, or oatmeal, and it was all pretty good. They also offered the traditional continental breakfast items as well as fruit and yogurt. AMENITIES:As mentioned, the free hot breakfast was quite good, and the options with it were respectable. The high speed wireless internet was decent, but the wired connection was more reliable. Luckily, you have wired availability in the room by the desk if you need it. The televisions in the rooms are outdated, but functional. The hotel offers a shuttle to the airport if you need it, but the immediate area around the hotel offers very few options if you want to go shopping or out to eat. ROOMS:I stayed in a King Suite, which is a partially divided suite with a half wall between the living/kicthenette area and the bedroom area. The kitchenette was equipped with a relatively large mini-fridge, coffee maker, and microwave. The living area has a sofa with a fold out sofabed and coffee table, but you can't really see the TV from the couch, so I'm not sure why you would use that section unless you're using it for work like I was. The desk area is directly in front of the sofa. The bedroom area does have a closet with a safe in it, and the air conditioner is wall-mounted on the bedroom wall. As a result, the work/living side of the suite is always too warm while the bedroom side is generally too cold, but that's the downside to a wall-mounted A/C unit. The bed is reasonably comfortable and the bedding is a bit on the minimalistic side- it might be advisable to bring a blanket if you get cold easily.SERVICE:Service was acceptable at this hotel, the front desk staff was cordial but not very enthusiastic. Housekeeping did a good job and I did not have any issues while I was staying there. The staff that kept the breakfast bar filled did an excellent job at keeping food available and the area clean. OVERALL:The hotel itself is pretty standard for a Holiday Inn Express, and you won't be disappointed by those standards. The one area of concern I had with this hotel was it's location/accessibility. The hotel is easy enough to get in to/out of, but the area offers very little in the line of shopping dining. There are a few chain restaurants near the hotel, but virtually no stores if you need to run out and get something, and the area gets a bit more industrial/less reputable if you drive very far from the hotel in either direction. It is not too far from downtown, but I had a lot more difficulty getting around the area from here than I did my second week, when I stayed in the Park Central/Addison area.More</t>
   </si>
   <si>
+    <t>Jeremy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r43359385-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1636,6 +1858,9 @@
   <si>
     <t>We made our reservations on the Holiday Inn Express site in July after getting tickets to an area concert.  Our primary reason for selecting this hotel was because the jacuzzi suite showed available at the same price as a regular room... so we booked it!  Once we arrived in the room, we quickly noticed it was not the room we had guaranteed on our reservation.  I logged into the website to check the reservation to make sure I wasn't going crazy, and I noticed the email confirmation and the website reservation were COMPLETELY different.  I called the front desk and they stated they changed the reservation because the jacuzzi suite should not have shown up for that price and if I wanted to pay another $50 per night, they could move me to the room I originally was guaranteed.  Needless to say, we just stayed in this simple room instead since we had lots of activities going on over the weekend.  The hotel was basic and nothing really special, but it was clean.  Our bathroom door would not shut, but we had no problem throwing down a towel in front of the door to hold it closed for privacy.  
 The area around the hotel completely changes after dark.  There were cars continuously going around the hotel two or three at a time and would never get out of their cars.  The hotel uses its shuttle van to block one of...We made our reservations on the Holiday Inn Express site in July after getting tickets to an area concert.  Our primary reason for selecting this hotel was because the jacuzzi suite showed available at the same price as a regular room... so we booked it!  Once we arrived in the room, we quickly noticed it was not the room we had guaranteed on our reservation.  I logged into the website to check the reservation to make sure I wasn't going crazy, and I noticed the email confirmation and the website reservation were COMPLETELY different.  I called the front desk and they stated they changed the reservation because the jacuzzi suite should not have shown up for that price and if I wanted to pay another $50 per night, they could move me to the room I originally was guaranteed.  Needless to say, we just stayed in this simple room instead since we had lots of activities going on over the weekend.  The hotel was basic and nothing really special, but it was clean.  Our bathroom door would not shut, but we had no problem throwing down a towel in front of the door to hold it closed for privacy.  The area around the hotel completely changes after dark.  There were cars continuously going around the hotel two or three at a time and would never get out of their cars.  The hotel uses its shuttle van to block one of the entrances to keep unwanted people out.  There is a Baby Dolls strip club right across the street.  The night guy at the front desk was on his cell phone every time we came in and out of the hotel and the side entrance door was broken (so you have to walk all the way around the dark property at night).Although the room was clean and the only actual problem we had was reservations, I would still not stay at this hotel again.  The hotel staff, management, and their nationwide reservation number showed very little care for the situation and offered even less help.More</t>
+  </si>
+  <si>
+    <t>travelbuddy24</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109371-r32753735-Holiday_Inn_Express_Hotel_Suites_Dallas_Stemmons_Fwy_I_35_E-Dallas_Texas.html</t>
@@ -2161,43 +2386,47 @@
       <c r="A2" t="n">
         <v>32980</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>99352</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2217,50 +2446,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32980</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155332</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2274,50 +2507,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32980</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155333</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2333,56 +2570,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>32980</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>31401</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2394,56 +2635,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>32980</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155334</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2459,56 +2704,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>32980</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155335</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2528,50 +2777,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32980</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155336</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2591,50 +2844,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>32980</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155337</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2646,56 +2903,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>32980</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155338</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2711,56 +2972,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>32980</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155339</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2772,56 +3037,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>32980</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155340</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2839,56 +3108,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32980</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155341</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2908,50 +3181,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>32980</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155342</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2971,50 +3248,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>32980</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>155343</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3032,50 +3313,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>32980</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155344</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3087,56 +3372,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="X16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>32980</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>108224</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3154,47 +3443,51 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="X17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>32980</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>155345</v>
+      </c>
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -3213,50 +3506,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>32980</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155346</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3270,50 +3567,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32980</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>1369</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3333,32 +3634,36 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>32980</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>155347</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="J21" t="s"/>
       <c r="K21" t="s"/>
@@ -3375,51 +3680,52 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>32980</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>155348</v>
+      </c>
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3433,50 +3739,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>32980</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>19076</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3496,50 +3806,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>32980</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>155349</v>
+      </c>
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="J24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="O24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3559,50 +3873,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>32980</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155350</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3620,56 +3938,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="X25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="Y25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>32980</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155351</v>
+      </c>
+      <c r="C26" t="s">
+        <v>234</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3689,50 +4011,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>32980</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>155352</v>
+      </c>
+      <c r="C27" t="s">
+        <v>241</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="J27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="K27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3746,50 +4072,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>32980</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155353</v>
+      </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="K28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3803,50 +4133,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>32980</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155354</v>
+      </c>
+      <c r="C29" t="s">
+        <v>253</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="J29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="K29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3866,50 +4200,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>32980</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>155355</v>
+      </c>
+      <c r="C30" t="s">
+        <v>260</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="J30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3921,56 +4259,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="X30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="Y30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>32980</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>9230</v>
+      </c>
+      <c r="C31" t="s">
+        <v>270</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="J31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="K31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3988,50 +4330,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>32980</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>155356</v>
+      </c>
+      <c r="C32" t="s">
+        <v>277</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="J32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4049,50 +4395,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>32980</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>102168</v>
+      </c>
+      <c r="C33" t="s">
+        <v>284</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="J33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="K33" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4112,41 +4462,45 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>32980</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>42990</v>
+      </c>
+      <c r="C34" t="s">
+        <v>291</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="J34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
@@ -4165,50 +4519,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>32980</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>86439</v>
+      </c>
+      <c r="C35" t="s">
+        <v>297</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="J35" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4228,50 +4586,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>32980</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>155357</v>
+      </c>
+      <c r="C36" t="s">
+        <v>303</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="J36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="K36" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4289,50 +4651,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>32980</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>155358</v>
+      </c>
+      <c r="C37" t="s">
+        <v>310</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="J37" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4356,50 +4722,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>32980</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>155359</v>
+      </c>
+      <c r="C38" t="s">
+        <v>318</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="J38" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="K38" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4421,47 +4791,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="X38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="Y38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>32980</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>155360</v>
+      </c>
+      <c r="C39" t="s">
+        <v>328</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="J39" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="K39" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="L39" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
@@ -4488,56 +4862,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="X39" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="Y39" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>32980</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>155361</v>
+      </c>
+      <c r="C40" t="s">
+        <v>337</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="J40" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="K40" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="L40" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="O40" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -4559,56 +4937,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="X40" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="Y40" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>32980</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155362</v>
+      </c>
+      <c r="C41" t="s">
+        <v>347</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="J41" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="K41" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="O41" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4632,50 +5014,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>32980</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>155363</v>
+      </c>
+      <c r="C42" t="s">
+        <v>354</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="J42" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="K42" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="L42" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="O42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4699,41 +5085,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>32980</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>155364</v>
+      </c>
+      <c r="C43" t="s">
+        <v>360</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="J43" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="K43" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
@@ -4762,50 +5152,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>32980</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155365</v>
+      </c>
+      <c r="C44" t="s">
+        <v>366</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="J44" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="K44" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="L44" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4829,50 +5223,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>32980</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>155366</v>
+      </c>
+      <c r="C45" t="s">
+        <v>374</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="J45" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="K45" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="L45" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="O45" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -4894,56 +5292,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="X45" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="Y45" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>32980</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>82321</v>
+      </c>
+      <c r="C46" t="s">
+        <v>383</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="J46" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="K46" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="L46" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4965,56 +5367,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="X46" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="Y46" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>32980</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>155367</v>
+      </c>
+      <c r="C47" t="s">
+        <v>393</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="J47" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="K47" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="O47" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5038,50 +5444,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>32980</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155368</v>
+      </c>
+      <c r="C48" t="s">
+        <v>401</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="J48" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="K48" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="L48" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="O48" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5105,50 +5515,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>32980</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>155369</v>
+      </c>
+      <c r="C49" t="s">
+        <v>408</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="J49" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="K49" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="L49" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="O49" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5172,50 +5586,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>32980</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155370</v>
+      </c>
+      <c r="C50" t="s">
+        <v>415</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="J50" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="K50" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="L50" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5237,47 +5655,51 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="X50" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="Y50" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>32980</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>155371</v>
+      </c>
+      <c r="C51" t="s">
+        <v>424</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="J51" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="K51" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="L51" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
@@ -5306,50 +5728,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>32980</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>155372</v>
+      </c>
+      <c r="C52" t="s">
+        <v>430</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="J52" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="K52" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="L52" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="O52" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5373,50 +5799,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>32980</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>155373</v>
+      </c>
+      <c r="C53" t="s">
+        <v>436</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="J53" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="K53" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="L53" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="O53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5440,50 +5870,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>32980</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>155374</v>
+      </c>
+      <c r="C54" t="s">
+        <v>443</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="J54" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="K54" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="L54" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="O54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5507,50 +5941,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>32980</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>155375</v>
+      </c>
+      <c r="C55" t="s">
+        <v>451</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="J55" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="K55" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="L55" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="O55" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5574,50 +6012,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>32980</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>49690</v>
+      </c>
+      <c r="C56" t="s">
+        <v>459</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="J56" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="K56" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="L56" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5641,50 +6083,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>32980</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>41536</v>
+      </c>
+      <c r="C57" t="s">
+        <v>466</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="J57" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="K57" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="L57" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="O57" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5708,41 +6154,45 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>32980</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>155376</v>
+      </c>
+      <c r="C58" t="s">
+        <v>474</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="J58" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="K58" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="L58" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
@@ -5771,50 +6221,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>32980</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>155377</v>
+      </c>
+      <c r="C59" t="s">
+        <v>480</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="J59" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="K59" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="L59" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5838,50 +6292,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>32980</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>155378</v>
+      </c>
+      <c r="C60" t="s">
+        <v>486</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="J60" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="K60" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="L60" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="O60" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -5905,50 +6363,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>32980</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>48479</v>
+      </c>
+      <c r="C61" t="s">
+        <v>492</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>433</v>
+        <v>493</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>434</v>
+        <v>494</v>
       </c>
       <c r="J61" t="s">
-        <v>435</v>
+        <v>495</v>
       </c>
       <c r="K61" t="s">
-        <v>436</v>
+        <v>496</v>
       </c>
       <c r="L61" t="s">
-        <v>437</v>
+        <v>497</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>438</v>
+        <v>498</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -5972,50 +6434,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>32980</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>155379</v>
+      </c>
+      <c r="C62" t="s">
+        <v>500</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>440</v>
+        <v>501</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>441</v>
+        <v>502</v>
       </c>
       <c r="J62" t="s">
-        <v>442</v>
+        <v>503</v>
       </c>
       <c r="K62" t="s">
-        <v>443</v>
+        <v>504</v>
       </c>
       <c r="L62" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>438</v>
+        <v>498</v>
       </c>
       <c r="O62" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -6039,50 +6505,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>32980</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>88599</v>
+      </c>
+      <c r="C63" t="s">
+        <v>506</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>446</v>
+        <v>508</v>
       </c>
       <c r="J63" t="s">
-        <v>447</v>
+        <v>509</v>
       </c>
       <c r="K63" t="s">
-        <v>448</v>
+        <v>510</v>
       </c>
       <c r="L63" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>450</v>
+        <v>512</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6106,50 +6576,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>32980</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>155380</v>
+      </c>
+      <c r="C64" t="s">
+        <v>514</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>452</v>
+        <v>515</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="J64" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="K64" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L64" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6173,50 +6647,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>32980</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>155381</v>
+      </c>
+      <c r="C65" t="s">
+        <v>520</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>457</v>
+        <v>521</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="J65" t="s">
-        <v>459</v>
+        <v>523</v>
       </c>
       <c r="K65" t="s">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="L65" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>2</v>
@@ -6238,47 +6716,51 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="X65" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="Y65" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>32980</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>155382</v>
+      </c>
+      <c r="C66" t="s">
+        <v>530</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="J66" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
       <c r="K66" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="L66" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
@@ -6307,41 +6789,45 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>32980</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>155383</v>
+      </c>
+      <c r="C67" t="s">
+        <v>536</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="J67" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="K67" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="L67" t="s">
-        <v>475</v>
+        <v>541</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
@@ -6370,50 +6856,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>475</v>
+        <v>541</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>32980</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>155384</v>
+      </c>
+      <c r="C68" t="s">
+        <v>542</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>477</v>
+        <v>544</v>
       </c>
       <c r="J68" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
       <c r="K68" t="s">
-        <v>479</v>
+        <v>546</v>
       </c>
       <c r="L68" t="s">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>481</v>
+        <v>548</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6437,50 +6927,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>480</v>
+        <v>547</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>32980</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>155385</v>
+      </c>
+      <c r="C69" t="s">
+        <v>549</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>483</v>
+        <v>551</v>
       </c>
       <c r="J69" t="s">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="K69" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="L69" t="s">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>487</v>
+        <v>555</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6504,50 +6998,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>488</v>
+        <v>556</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>32980</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>155386</v>
+      </c>
+      <c r="C70" t="s">
+        <v>557</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>489</v>
+        <v>558</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>490</v>
+        <v>559</v>
       </c>
       <c r="J70" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="K70" t="s">
-        <v>492</v>
+        <v>561</v>
       </c>
       <c r="L70" t="s">
-        <v>493</v>
+        <v>562</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="O70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6571,50 +7069,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>493</v>
+        <v>562</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>32980</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>155387</v>
+      </c>
+      <c r="C71" t="s">
+        <v>564</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>495</v>
+        <v>565</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>496</v>
+        <v>566</v>
       </c>
       <c r="J71" t="s">
-        <v>497</v>
+        <v>567</v>
       </c>
       <c r="K71" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
       <c r="L71" t="s">
-        <v>499</v>
+        <v>569</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="O71" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P71" t="n">
         <v>2</v>
@@ -6638,50 +7140,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>499</v>
+        <v>569</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>32980</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>155388</v>
+      </c>
+      <c r="C72" t="s">
+        <v>571</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>501</v>
+        <v>572</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>502</v>
+        <v>573</v>
       </c>
       <c r="J72" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
       <c r="K72" t="s">
-        <v>504</v>
+        <v>575</v>
       </c>
       <c r="L72" t="s">
-        <v>505</v>
+        <v>576</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="O72" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P72" t="n">
         <v>2</v>
@@ -6703,50 +7209,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>506</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>32980</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>155389</v>
+      </c>
+      <c r="C73" t="s">
+        <v>578</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
       <c r="J73" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
       <c r="K73" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="L73" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>512</v>
+        <v>584</v>
       </c>
       <c r="O73" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -6760,50 +7270,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>32980</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>14046</v>
+      </c>
+      <c r="C74" t="s">
+        <v>585</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>513</v>
+        <v>586</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>514</v>
+        <v>587</v>
       </c>
       <c r="J74" t="s">
-        <v>515</v>
+        <v>588</v>
       </c>
       <c r="K74" t="s">
-        <v>516</v>
+        <v>589</v>
       </c>
       <c r="L74" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>518</v>
+        <v>591</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -6827,50 +7341,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>519</v>
+        <v>592</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>32980</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>3133</v>
+      </c>
+      <c r="C75" t="s">
+        <v>593</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>520</v>
+        <v>594</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>521</v>
+        <v>595</v>
       </c>
       <c r="J75" t="s">
-        <v>522</v>
+        <v>596</v>
       </c>
       <c r="K75" t="s">
-        <v>523</v>
+        <v>597</v>
       </c>
       <c r="L75" t="s">
-        <v>524</v>
+        <v>598</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>518</v>
+        <v>591</v>
       </c>
       <c r="O75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -6894,50 +7412,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>32980</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>155390</v>
+      </c>
+      <c r="C76" t="s">
+        <v>600</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>526</v>
+        <v>601</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>527</v>
+        <v>602</v>
       </c>
       <c r="J76" t="s">
-        <v>528</v>
+        <v>603</v>
       </c>
       <c r="K76" t="s">
-        <v>529</v>
+        <v>604</v>
       </c>
       <c r="L76" t="s">
-        <v>530</v>
+        <v>605</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>531</v>
+        <v>606</v>
       </c>
       <c r="O76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -6961,7 +7483,7 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>532</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
